--- a/ntOrgchart-sample_input.xlsx
+++ b/ntOrgchart-sample_input.xlsx
@@ -5,20 +5,22 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/testuser/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nikitatolstoy/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98C154E0-9FA1-204F-94E7-50CE7D1252A3}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A558F268-661C-F14A-A4D9-F25D7C07EC0D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="15840" xr2:uid="{37419241-022C-1E4F-AB89-39142F5DE753}"/>
+    <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="15840" activeTab="2" xr2:uid="{37419241-022C-1E4F-AB89-39142F5DE753}"/>
   </bookViews>
   <sheets>
-    <sheet name="data" sheetId="1" r:id="rId1"/>
-    <sheet name="data_enriched" sheetId="3" r:id="rId2"/>
+    <sheet name="data_minimum" sheetId="5" r:id="rId1"/>
+    <sheet name="data_example" sheetId="1" r:id="rId2"/>
+    <sheet name="data_enriched" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$A$1:$N$52</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">data_enriched!$A$1:$N$52</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">data_enriched!$A$1:$N$52</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">data_example!$A$1:$N$52</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data_minimum!$A$1:$N$52</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,34 +32,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="172">
-  <si>
-    <t>Surname</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="175">
   <si>
     <t>Job Title</t>
-  </si>
-  <si>
-    <t>Department Name</t>
-  </si>
-  <si>
-    <t>Solid Line_x000D_
-Surname</t>
-  </si>
-  <si>
-    <t>Solid Line_x000D_
-Name</t>
-  </si>
-  <si>
-    <t>Dotted Line_x000D_
-Surname</t>
-  </si>
-  <si>
-    <t>Dotted Line_x000D_
-Name</t>
   </si>
   <si>
     <t>Location</t>
@@ -552,6 +529,38 @@
   </si>
   <si>
     <t>Accountant</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Employee Surname</t>
+  </si>
+  <si>
+    <t>Employee Name</t>
+  </si>
+  <si>
+    <t>Team</t>
+  </si>
+  <si>
+    <t>Reports To
+Surname</t>
+  </si>
+  <si>
+    <t>Reports To
+Name</t>
+  </si>
+  <si>
+    <t>Dotted Line Manager _x000D_Surname</t>
+  </si>
+  <si>
+    <t>Dotted Line Manager_x000D_ Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Development</t>
   </si>
 </sst>
 </file>
@@ -591,11 +600,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -914,11 +920,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83CDF36D-5EA0-E84A-B55F-4894595BA27A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A7377BC-1DCB-47CE-BB37-C4F5EB031004}">
   <dimension ref="A1:N53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="F53" sqref="F53"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1757,1088 +1763,880 @@
     <col min="16142" max="16142" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="26" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" ht="39" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>17</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>23</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
       <c r="E3" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="F3" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>23</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
       <c r="E4" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>23</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
       <c r="E5" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F5" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F6" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>23</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
       <c r="E7" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F7" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>23</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
       <c r="E8" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F8" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>151</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
       <c r="E9" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="F9" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>23</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
       <c r="E10" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F10" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>50</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
       <c r="E11" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B12" t="s">
-        <v>53</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>50</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
       <c r="E12" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B13" t="s">
-        <v>56</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>58</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
       <c r="E13" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>61</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
       <c r="E14" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="F14" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B15" t="s">
-        <v>65</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>61</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
       <c r="E15" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="F15" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B16" t="s">
-        <v>68</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D16" s="3" t="s">
         <v>61</v>
       </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
       <c r="E16" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="F16" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B17" t="s">
-        <v>71</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>61</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
       <c r="E17" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="F17" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B18" t="s">
-        <v>74</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>61</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
       <c r="E18" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B19" t="s">
-        <v>77</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>61</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
       <c r="E19" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="F19" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B20" t="s">
-        <v>82</v>
-      </c>
-      <c r="C20" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" t="s">
         <v>72</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E20" t="s">
-        <v>79</v>
-      </c>
       <c r="F20" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B21" t="s">
-        <v>84</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>61</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
       <c r="E21" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="F21" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B22" t="s">
-        <v>87</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>61</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
       <c r="E22" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="F22" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B23" t="s">
-        <v>90</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>61</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
       <c r="E23" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="F23" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B24" t="s">
-        <v>95</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>61</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
       <c r="E24" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="F24" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="B25" t="s">
-        <v>98</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>61</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
       <c r="E25" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="F25" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B26" t="s">
-        <v>101</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>61</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
       <c r="E26" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="F26" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="B27" t="s">
-        <v>104</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>61</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
       <c r="E27" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="F27" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="B28" t="s">
-        <v>93</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>61</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
       <c r="E28" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="F28" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="B29" t="s">
-        <v>108</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>61</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
       <c r="E29" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="F29" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="B30" t="s">
-        <v>111</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>61</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
       <c r="E30" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="F30" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B31" t="s">
-        <v>114</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>61</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
       <c r="E31" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="F31" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B32" t="s">
-        <v>63</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>61</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
       <c r="E32" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="F32" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B33" t="s">
-        <v>80</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>61</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
       <c r="E33" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="F33" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="B34" t="s">
-        <v>118</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>61</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
       <c r="E34" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="F34" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="B35" t="s">
-        <v>121</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>61</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
       <c r="E35" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="F35" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B36" t="s">
-        <v>124</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>61</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
       <c r="E36" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="F36" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="B37" t="s">
-        <v>127</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>61</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
       <c r="E37" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="F37" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B38" t="s">
-        <v>130</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>61</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
       <c r="E38" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="F38" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B39" t="s">
-        <v>132</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>134</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
       <c r="E39" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="F39" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="B40" t="s">
-        <v>138</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>134</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
       <c r="E40" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="F40" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="B41" t="s">
-        <v>141</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="D41" s="3" t="s">
         <v>134</v>
       </c>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
       <c r="E41" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="F41" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="B42" t="s">
-        <v>143</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>134</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
       <c r="E42" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="F42" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="B43" t="s">
-        <v>146</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>134</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
       <c r="E43" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="F43" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="B44" t="s">
-        <v>136</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>134</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
       <c r="E44" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="F44" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="B45" t="s">
-        <v>149</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>134</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
       <c r="E45" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="F45" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B46" t="s">
-        <v>42</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>151</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
       <c r="E46" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B47" t="s">
-        <v>47</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>151</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
       <c r="E47" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F47" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="B48" t="s">
-        <v>154</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>151</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
       <c r="E48" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F48" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="B49" t="s">
-        <v>156</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>151</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
       <c r="E49" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="F49" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B50" t="s">
-        <v>159</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>151</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
       <c r="E50" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="F50" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="B51" t="s">
-        <v>162</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>151</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
       <c r="E51" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="F51" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="B52" t="s">
-        <v>165</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>151</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
       <c r="E52" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="F52" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="B53" t="s">
-        <v>170</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>17</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
       <c r="E53" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F53" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -2849,11 +2647,1947 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83CDF36D-5EA0-E84A-B55F-4894595BA27A}">
+  <dimension ref="A1:N53"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="2" width="19.5" customWidth="1"/>
+    <col min="3" max="3" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="16.5" customWidth="1"/>
+    <col min="7" max="8" width="19.6640625" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12" customWidth="1"/>
+    <col min="12" max="12" width="12.83203125" customWidth="1"/>
+    <col min="13" max="13" width="7" customWidth="1"/>
+    <col min="14" max="14" width="11.5" customWidth="1"/>
+    <col min="257" max="257" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="258" max="258" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="259" max="259" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="260" max="260" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="261" max="262" width="15.6640625" customWidth="1"/>
+    <col min="263" max="263" width="13.83203125" customWidth="1"/>
+    <col min="264" max="264" width="15.83203125" customWidth="1"/>
+    <col min="265" max="265" width="14" customWidth="1"/>
+    <col min="266" max="266" width="15" bestFit="1" customWidth="1"/>
+    <col min="267" max="267" width="12" customWidth="1"/>
+    <col min="268" max="268" width="12.83203125" customWidth="1"/>
+    <col min="269" max="269" width="7" customWidth="1"/>
+    <col min="270" max="270" width="11.5" customWidth="1"/>
+    <col min="513" max="513" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="514" max="514" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="515" max="515" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="516" max="516" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="517" max="518" width="15.6640625" customWidth="1"/>
+    <col min="519" max="519" width="13.83203125" customWidth="1"/>
+    <col min="520" max="520" width="15.83203125" customWidth="1"/>
+    <col min="521" max="521" width="14" customWidth="1"/>
+    <col min="522" max="522" width="15" bestFit="1" customWidth="1"/>
+    <col min="523" max="523" width="12" customWidth="1"/>
+    <col min="524" max="524" width="12.83203125" customWidth="1"/>
+    <col min="525" max="525" width="7" customWidth="1"/>
+    <col min="526" max="526" width="11.5" customWidth="1"/>
+    <col min="769" max="769" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="770" max="770" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="771" max="771" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="772" max="772" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="773" max="774" width="15.6640625" customWidth="1"/>
+    <col min="775" max="775" width="13.83203125" customWidth="1"/>
+    <col min="776" max="776" width="15.83203125" customWidth="1"/>
+    <col min="777" max="777" width="14" customWidth="1"/>
+    <col min="778" max="778" width="15" bestFit="1" customWidth="1"/>
+    <col min="779" max="779" width="12" customWidth="1"/>
+    <col min="780" max="780" width="12.83203125" customWidth="1"/>
+    <col min="781" max="781" width="7" customWidth="1"/>
+    <col min="782" max="782" width="11.5" customWidth="1"/>
+    <col min="1025" max="1025" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="1026" max="1026" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="1027" max="1027" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="1028" max="1028" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="1029" max="1030" width="15.6640625" customWidth="1"/>
+    <col min="1031" max="1031" width="13.83203125" customWidth="1"/>
+    <col min="1032" max="1032" width="15.83203125" customWidth="1"/>
+    <col min="1033" max="1033" width="14" customWidth="1"/>
+    <col min="1034" max="1034" width="15" bestFit="1" customWidth="1"/>
+    <col min="1035" max="1035" width="12" customWidth="1"/>
+    <col min="1036" max="1036" width="12.83203125" customWidth="1"/>
+    <col min="1037" max="1037" width="7" customWidth="1"/>
+    <col min="1038" max="1038" width="11.5" customWidth="1"/>
+    <col min="1281" max="1281" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="1282" max="1282" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="1283" max="1283" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="1284" max="1284" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="1285" max="1286" width="15.6640625" customWidth="1"/>
+    <col min="1287" max="1287" width="13.83203125" customWidth="1"/>
+    <col min="1288" max="1288" width="15.83203125" customWidth="1"/>
+    <col min="1289" max="1289" width="14" customWidth="1"/>
+    <col min="1290" max="1290" width="15" bestFit="1" customWidth="1"/>
+    <col min="1291" max="1291" width="12" customWidth="1"/>
+    <col min="1292" max="1292" width="12.83203125" customWidth="1"/>
+    <col min="1293" max="1293" width="7" customWidth="1"/>
+    <col min="1294" max="1294" width="11.5" customWidth="1"/>
+    <col min="1537" max="1537" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="1538" max="1538" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="1539" max="1539" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="1540" max="1540" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="1541" max="1542" width="15.6640625" customWidth="1"/>
+    <col min="1543" max="1543" width="13.83203125" customWidth="1"/>
+    <col min="1544" max="1544" width="15.83203125" customWidth="1"/>
+    <col min="1545" max="1545" width="14" customWidth="1"/>
+    <col min="1546" max="1546" width="15" bestFit="1" customWidth="1"/>
+    <col min="1547" max="1547" width="12" customWidth="1"/>
+    <col min="1548" max="1548" width="12.83203125" customWidth="1"/>
+    <col min="1549" max="1549" width="7" customWidth="1"/>
+    <col min="1550" max="1550" width="11.5" customWidth="1"/>
+    <col min="1793" max="1793" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="1794" max="1794" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="1795" max="1795" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="1796" max="1796" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="1797" max="1798" width="15.6640625" customWidth="1"/>
+    <col min="1799" max="1799" width="13.83203125" customWidth="1"/>
+    <col min="1800" max="1800" width="15.83203125" customWidth="1"/>
+    <col min="1801" max="1801" width="14" customWidth="1"/>
+    <col min="1802" max="1802" width="15" bestFit="1" customWidth="1"/>
+    <col min="1803" max="1803" width="12" customWidth="1"/>
+    <col min="1804" max="1804" width="12.83203125" customWidth="1"/>
+    <col min="1805" max="1805" width="7" customWidth="1"/>
+    <col min="1806" max="1806" width="11.5" customWidth="1"/>
+    <col min="2049" max="2049" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="2050" max="2050" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="2051" max="2051" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="2052" max="2052" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="2053" max="2054" width="15.6640625" customWidth="1"/>
+    <col min="2055" max="2055" width="13.83203125" customWidth="1"/>
+    <col min="2056" max="2056" width="15.83203125" customWidth="1"/>
+    <col min="2057" max="2057" width="14" customWidth="1"/>
+    <col min="2058" max="2058" width="15" bestFit="1" customWidth="1"/>
+    <col min="2059" max="2059" width="12" customWidth="1"/>
+    <col min="2060" max="2060" width="12.83203125" customWidth="1"/>
+    <col min="2061" max="2061" width="7" customWidth="1"/>
+    <col min="2062" max="2062" width="11.5" customWidth="1"/>
+    <col min="2305" max="2305" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="2306" max="2306" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="2307" max="2307" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="2308" max="2308" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="2309" max="2310" width="15.6640625" customWidth="1"/>
+    <col min="2311" max="2311" width="13.83203125" customWidth="1"/>
+    <col min="2312" max="2312" width="15.83203125" customWidth="1"/>
+    <col min="2313" max="2313" width="14" customWidth="1"/>
+    <col min="2314" max="2314" width="15" bestFit="1" customWidth="1"/>
+    <col min="2315" max="2315" width="12" customWidth="1"/>
+    <col min="2316" max="2316" width="12.83203125" customWidth="1"/>
+    <col min="2317" max="2317" width="7" customWidth="1"/>
+    <col min="2318" max="2318" width="11.5" customWidth="1"/>
+    <col min="2561" max="2561" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="2562" max="2562" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="2563" max="2563" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="2564" max="2564" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="2565" max="2566" width="15.6640625" customWidth="1"/>
+    <col min="2567" max="2567" width="13.83203125" customWidth="1"/>
+    <col min="2568" max="2568" width="15.83203125" customWidth="1"/>
+    <col min="2569" max="2569" width="14" customWidth="1"/>
+    <col min="2570" max="2570" width="15" bestFit="1" customWidth="1"/>
+    <col min="2571" max="2571" width="12" customWidth="1"/>
+    <col min="2572" max="2572" width="12.83203125" customWidth="1"/>
+    <col min="2573" max="2573" width="7" customWidth="1"/>
+    <col min="2574" max="2574" width="11.5" customWidth="1"/>
+    <col min="2817" max="2817" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="2818" max="2818" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="2819" max="2819" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="2820" max="2820" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="2821" max="2822" width="15.6640625" customWidth="1"/>
+    <col min="2823" max="2823" width="13.83203125" customWidth="1"/>
+    <col min="2824" max="2824" width="15.83203125" customWidth="1"/>
+    <col min="2825" max="2825" width="14" customWidth="1"/>
+    <col min="2826" max="2826" width="15" bestFit="1" customWidth="1"/>
+    <col min="2827" max="2827" width="12" customWidth="1"/>
+    <col min="2828" max="2828" width="12.83203125" customWidth="1"/>
+    <col min="2829" max="2829" width="7" customWidth="1"/>
+    <col min="2830" max="2830" width="11.5" customWidth="1"/>
+    <col min="3073" max="3073" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="3074" max="3074" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="3075" max="3075" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="3076" max="3076" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="3077" max="3078" width="15.6640625" customWidth="1"/>
+    <col min="3079" max="3079" width="13.83203125" customWidth="1"/>
+    <col min="3080" max="3080" width="15.83203125" customWidth="1"/>
+    <col min="3081" max="3081" width="14" customWidth="1"/>
+    <col min="3082" max="3082" width="15" bestFit="1" customWidth="1"/>
+    <col min="3083" max="3083" width="12" customWidth="1"/>
+    <col min="3084" max="3084" width="12.83203125" customWidth="1"/>
+    <col min="3085" max="3085" width="7" customWidth="1"/>
+    <col min="3086" max="3086" width="11.5" customWidth="1"/>
+    <col min="3329" max="3329" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="3330" max="3330" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="3331" max="3331" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="3332" max="3332" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="3333" max="3334" width="15.6640625" customWidth="1"/>
+    <col min="3335" max="3335" width="13.83203125" customWidth="1"/>
+    <col min="3336" max="3336" width="15.83203125" customWidth="1"/>
+    <col min="3337" max="3337" width="14" customWidth="1"/>
+    <col min="3338" max="3338" width="15" bestFit="1" customWidth="1"/>
+    <col min="3339" max="3339" width="12" customWidth="1"/>
+    <col min="3340" max="3340" width="12.83203125" customWidth="1"/>
+    <col min="3341" max="3341" width="7" customWidth="1"/>
+    <col min="3342" max="3342" width="11.5" customWidth="1"/>
+    <col min="3585" max="3585" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="3586" max="3586" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="3587" max="3587" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="3588" max="3588" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="3589" max="3590" width="15.6640625" customWidth="1"/>
+    <col min="3591" max="3591" width="13.83203125" customWidth="1"/>
+    <col min="3592" max="3592" width="15.83203125" customWidth="1"/>
+    <col min="3593" max="3593" width="14" customWidth="1"/>
+    <col min="3594" max="3594" width="15" bestFit="1" customWidth="1"/>
+    <col min="3595" max="3595" width="12" customWidth="1"/>
+    <col min="3596" max="3596" width="12.83203125" customWidth="1"/>
+    <col min="3597" max="3597" width="7" customWidth="1"/>
+    <col min="3598" max="3598" width="11.5" customWidth="1"/>
+    <col min="3841" max="3841" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="3842" max="3842" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="3843" max="3843" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="3844" max="3844" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="3845" max="3846" width="15.6640625" customWidth="1"/>
+    <col min="3847" max="3847" width="13.83203125" customWidth="1"/>
+    <col min="3848" max="3848" width="15.83203125" customWidth="1"/>
+    <col min="3849" max="3849" width="14" customWidth="1"/>
+    <col min="3850" max="3850" width="15" bestFit="1" customWidth="1"/>
+    <col min="3851" max="3851" width="12" customWidth="1"/>
+    <col min="3852" max="3852" width="12.83203125" customWidth="1"/>
+    <col min="3853" max="3853" width="7" customWidth="1"/>
+    <col min="3854" max="3854" width="11.5" customWidth="1"/>
+    <col min="4097" max="4097" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="4098" max="4098" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="4099" max="4099" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="4100" max="4100" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="4101" max="4102" width="15.6640625" customWidth="1"/>
+    <col min="4103" max="4103" width="13.83203125" customWidth="1"/>
+    <col min="4104" max="4104" width="15.83203125" customWidth="1"/>
+    <col min="4105" max="4105" width="14" customWidth="1"/>
+    <col min="4106" max="4106" width="15" bestFit="1" customWidth="1"/>
+    <col min="4107" max="4107" width="12" customWidth="1"/>
+    <col min="4108" max="4108" width="12.83203125" customWidth="1"/>
+    <col min="4109" max="4109" width="7" customWidth="1"/>
+    <col min="4110" max="4110" width="11.5" customWidth="1"/>
+    <col min="4353" max="4353" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="4354" max="4354" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="4355" max="4355" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="4356" max="4356" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="4357" max="4358" width="15.6640625" customWidth="1"/>
+    <col min="4359" max="4359" width="13.83203125" customWidth="1"/>
+    <col min="4360" max="4360" width="15.83203125" customWidth="1"/>
+    <col min="4361" max="4361" width="14" customWidth="1"/>
+    <col min="4362" max="4362" width="15" bestFit="1" customWidth="1"/>
+    <col min="4363" max="4363" width="12" customWidth="1"/>
+    <col min="4364" max="4364" width="12.83203125" customWidth="1"/>
+    <col min="4365" max="4365" width="7" customWidth="1"/>
+    <col min="4366" max="4366" width="11.5" customWidth="1"/>
+    <col min="4609" max="4609" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="4610" max="4610" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="4611" max="4611" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="4612" max="4612" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="4613" max="4614" width="15.6640625" customWidth="1"/>
+    <col min="4615" max="4615" width="13.83203125" customWidth="1"/>
+    <col min="4616" max="4616" width="15.83203125" customWidth="1"/>
+    <col min="4617" max="4617" width="14" customWidth="1"/>
+    <col min="4618" max="4618" width="15" bestFit="1" customWidth="1"/>
+    <col min="4619" max="4619" width="12" customWidth="1"/>
+    <col min="4620" max="4620" width="12.83203125" customWidth="1"/>
+    <col min="4621" max="4621" width="7" customWidth="1"/>
+    <col min="4622" max="4622" width="11.5" customWidth="1"/>
+    <col min="4865" max="4865" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="4866" max="4866" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="4867" max="4867" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="4868" max="4868" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="4869" max="4870" width="15.6640625" customWidth="1"/>
+    <col min="4871" max="4871" width="13.83203125" customWidth="1"/>
+    <col min="4872" max="4872" width="15.83203125" customWidth="1"/>
+    <col min="4873" max="4873" width="14" customWidth="1"/>
+    <col min="4874" max="4874" width="15" bestFit="1" customWidth="1"/>
+    <col min="4875" max="4875" width="12" customWidth="1"/>
+    <col min="4876" max="4876" width="12.83203125" customWidth="1"/>
+    <col min="4877" max="4877" width="7" customWidth="1"/>
+    <col min="4878" max="4878" width="11.5" customWidth="1"/>
+    <col min="5121" max="5121" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="5122" max="5122" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="5123" max="5123" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="5124" max="5124" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="5125" max="5126" width="15.6640625" customWidth="1"/>
+    <col min="5127" max="5127" width="13.83203125" customWidth="1"/>
+    <col min="5128" max="5128" width="15.83203125" customWidth="1"/>
+    <col min="5129" max="5129" width="14" customWidth="1"/>
+    <col min="5130" max="5130" width="15" bestFit="1" customWidth="1"/>
+    <col min="5131" max="5131" width="12" customWidth="1"/>
+    <col min="5132" max="5132" width="12.83203125" customWidth="1"/>
+    <col min="5133" max="5133" width="7" customWidth="1"/>
+    <col min="5134" max="5134" width="11.5" customWidth="1"/>
+    <col min="5377" max="5377" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="5378" max="5378" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="5379" max="5379" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="5380" max="5380" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="5381" max="5382" width="15.6640625" customWidth="1"/>
+    <col min="5383" max="5383" width="13.83203125" customWidth="1"/>
+    <col min="5384" max="5384" width="15.83203125" customWidth="1"/>
+    <col min="5385" max="5385" width="14" customWidth="1"/>
+    <col min="5386" max="5386" width="15" bestFit="1" customWidth="1"/>
+    <col min="5387" max="5387" width="12" customWidth="1"/>
+    <col min="5388" max="5388" width="12.83203125" customWidth="1"/>
+    <col min="5389" max="5389" width="7" customWidth="1"/>
+    <col min="5390" max="5390" width="11.5" customWidth="1"/>
+    <col min="5633" max="5633" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="5634" max="5634" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="5635" max="5635" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="5636" max="5636" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="5637" max="5638" width="15.6640625" customWidth="1"/>
+    <col min="5639" max="5639" width="13.83203125" customWidth="1"/>
+    <col min="5640" max="5640" width="15.83203125" customWidth="1"/>
+    <col min="5641" max="5641" width="14" customWidth="1"/>
+    <col min="5642" max="5642" width="15" bestFit="1" customWidth="1"/>
+    <col min="5643" max="5643" width="12" customWidth="1"/>
+    <col min="5644" max="5644" width="12.83203125" customWidth="1"/>
+    <col min="5645" max="5645" width="7" customWidth="1"/>
+    <col min="5646" max="5646" width="11.5" customWidth="1"/>
+    <col min="5889" max="5889" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="5890" max="5890" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="5891" max="5891" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="5892" max="5892" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="5893" max="5894" width="15.6640625" customWidth="1"/>
+    <col min="5895" max="5895" width="13.83203125" customWidth="1"/>
+    <col min="5896" max="5896" width="15.83203125" customWidth="1"/>
+    <col min="5897" max="5897" width="14" customWidth="1"/>
+    <col min="5898" max="5898" width="15" bestFit="1" customWidth="1"/>
+    <col min="5899" max="5899" width="12" customWidth="1"/>
+    <col min="5900" max="5900" width="12.83203125" customWidth="1"/>
+    <col min="5901" max="5901" width="7" customWidth="1"/>
+    <col min="5902" max="5902" width="11.5" customWidth="1"/>
+    <col min="6145" max="6145" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="6146" max="6146" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="6147" max="6147" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="6148" max="6148" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="6149" max="6150" width="15.6640625" customWidth="1"/>
+    <col min="6151" max="6151" width="13.83203125" customWidth="1"/>
+    <col min="6152" max="6152" width="15.83203125" customWidth="1"/>
+    <col min="6153" max="6153" width="14" customWidth="1"/>
+    <col min="6154" max="6154" width="15" bestFit="1" customWidth="1"/>
+    <col min="6155" max="6155" width="12" customWidth="1"/>
+    <col min="6156" max="6156" width="12.83203125" customWidth="1"/>
+    <col min="6157" max="6157" width="7" customWidth="1"/>
+    <col min="6158" max="6158" width="11.5" customWidth="1"/>
+    <col min="6401" max="6401" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="6402" max="6402" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="6403" max="6403" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="6404" max="6404" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="6405" max="6406" width="15.6640625" customWidth="1"/>
+    <col min="6407" max="6407" width="13.83203125" customWidth="1"/>
+    <col min="6408" max="6408" width="15.83203125" customWidth="1"/>
+    <col min="6409" max="6409" width="14" customWidth="1"/>
+    <col min="6410" max="6410" width="15" bestFit="1" customWidth="1"/>
+    <col min="6411" max="6411" width="12" customWidth="1"/>
+    <col min="6412" max="6412" width="12.83203125" customWidth="1"/>
+    <col min="6413" max="6413" width="7" customWidth="1"/>
+    <col min="6414" max="6414" width="11.5" customWidth="1"/>
+    <col min="6657" max="6657" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="6658" max="6658" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="6659" max="6659" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="6660" max="6660" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="6661" max="6662" width="15.6640625" customWidth="1"/>
+    <col min="6663" max="6663" width="13.83203125" customWidth="1"/>
+    <col min="6664" max="6664" width="15.83203125" customWidth="1"/>
+    <col min="6665" max="6665" width="14" customWidth="1"/>
+    <col min="6666" max="6666" width="15" bestFit="1" customWidth="1"/>
+    <col min="6667" max="6667" width="12" customWidth="1"/>
+    <col min="6668" max="6668" width="12.83203125" customWidth="1"/>
+    <col min="6669" max="6669" width="7" customWidth="1"/>
+    <col min="6670" max="6670" width="11.5" customWidth="1"/>
+    <col min="6913" max="6913" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="6914" max="6914" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="6915" max="6915" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="6916" max="6916" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="6917" max="6918" width="15.6640625" customWidth="1"/>
+    <col min="6919" max="6919" width="13.83203125" customWidth="1"/>
+    <col min="6920" max="6920" width="15.83203125" customWidth="1"/>
+    <col min="6921" max="6921" width="14" customWidth="1"/>
+    <col min="6922" max="6922" width="15" bestFit="1" customWidth="1"/>
+    <col min="6923" max="6923" width="12" customWidth="1"/>
+    <col min="6924" max="6924" width="12.83203125" customWidth="1"/>
+    <col min="6925" max="6925" width="7" customWidth="1"/>
+    <col min="6926" max="6926" width="11.5" customWidth="1"/>
+    <col min="7169" max="7169" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="7170" max="7170" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="7171" max="7171" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="7172" max="7172" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="7173" max="7174" width="15.6640625" customWidth="1"/>
+    <col min="7175" max="7175" width="13.83203125" customWidth="1"/>
+    <col min="7176" max="7176" width="15.83203125" customWidth="1"/>
+    <col min="7177" max="7177" width="14" customWidth="1"/>
+    <col min="7178" max="7178" width="15" bestFit="1" customWidth="1"/>
+    <col min="7179" max="7179" width="12" customWidth="1"/>
+    <col min="7180" max="7180" width="12.83203125" customWidth="1"/>
+    <col min="7181" max="7181" width="7" customWidth="1"/>
+    <col min="7182" max="7182" width="11.5" customWidth="1"/>
+    <col min="7425" max="7425" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="7426" max="7426" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="7427" max="7427" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="7428" max="7428" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="7429" max="7430" width="15.6640625" customWidth="1"/>
+    <col min="7431" max="7431" width="13.83203125" customWidth="1"/>
+    <col min="7432" max="7432" width="15.83203125" customWidth="1"/>
+    <col min="7433" max="7433" width="14" customWidth="1"/>
+    <col min="7434" max="7434" width="15" bestFit="1" customWidth="1"/>
+    <col min="7435" max="7435" width="12" customWidth="1"/>
+    <col min="7436" max="7436" width="12.83203125" customWidth="1"/>
+    <col min="7437" max="7437" width="7" customWidth="1"/>
+    <col min="7438" max="7438" width="11.5" customWidth="1"/>
+    <col min="7681" max="7681" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="7682" max="7682" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="7683" max="7683" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="7684" max="7684" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="7685" max="7686" width="15.6640625" customWidth="1"/>
+    <col min="7687" max="7687" width="13.83203125" customWidth="1"/>
+    <col min="7688" max="7688" width="15.83203125" customWidth="1"/>
+    <col min="7689" max="7689" width="14" customWidth="1"/>
+    <col min="7690" max="7690" width="15" bestFit="1" customWidth="1"/>
+    <col min="7691" max="7691" width="12" customWidth="1"/>
+    <col min="7692" max="7692" width="12.83203125" customWidth="1"/>
+    <col min="7693" max="7693" width="7" customWidth="1"/>
+    <col min="7694" max="7694" width="11.5" customWidth="1"/>
+    <col min="7937" max="7937" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="7938" max="7938" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="7939" max="7939" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="7940" max="7940" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="7941" max="7942" width="15.6640625" customWidth="1"/>
+    <col min="7943" max="7943" width="13.83203125" customWidth="1"/>
+    <col min="7944" max="7944" width="15.83203125" customWidth="1"/>
+    <col min="7945" max="7945" width="14" customWidth="1"/>
+    <col min="7946" max="7946" width="15" bestFit="1" customWidth="1"/>
+    <col min="7947" max="7947" width="12" customWidth="1"/>
+    <col min="7948" max="7948" width="12.83203125" customWidth="1"/>
+    <col min="7949" max="7949" width="7" customWidth="1"/>
+    <col min="7950" max="7950" width="11.5" customWidth="1"/>
+    <col min="8193" max="8193" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="8194" max="8194" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="8195" max="8195" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="8196" max="8196" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="8197" max="8198" width="15.6640625" customWidth="1"/>
+    <col min="8199" max="8199" width="13.83203125" customWidth="1"/>
+    <col min="8200" max="8200" width="15.83203125" customWidth="1"/>
+    <col min="8201" max="8201" width="14" customWidth="1"/>
+    <col min="8202" max="8202" width="15" bestFit="1" customWidth="1"/>
+    <col min="8203" max="8203" width="12" customWidth="1"/>
+    <col min="8204" max="8204" width="12.83203125" customWidth="1"/>
+    <col min="8205" max="8205" width="7" customWidth="1"/>
+    <col min="8206" max="8206" width="11.5" customWidth="1"/>
+    <col min="8449" max="8449" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="8450" max="8450" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="8451" max="8451" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="8452" max="8452" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="8453" max="8454" width="15.6640625" customWidth="1"/>
+    <col min="8455" max="8455" width="13.83203125" customWidth="1"/>
+    <col min="8456" max="8456" width="15.83203125" customWidth="1"/>
+    <col min="8457" max="8457" width="14" customWidth="1"/>
+    <col min="8458" max="8458" width="15" bestFit="1" customWidth="1"/>
+    <col min="8459" max="8459" width="12" customWidth="1"/>
+    <col min="8460" max="8460" width="12.83203125" customWidth="1"/>
+    <col min="8461" max="8461" width="7" customWidth="1"/>
+    <col min="8462" max="8462" width="11.5" customWidth="1"/>
+    <col min="8705" max="8705" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="8706" max="8706" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="8707" max="8707" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="8708" max="8708" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="8709" max="8710" width="15.6640625" customWidth="1"/>
+    <col min="8711" max="8711" width="13.83203125" customWidth="1"/>
+    <col min="8712" max="8712" width="15.83203125" customWidth="1"/>
+    <col min="8713" max="8713" width="14" customWidth="1"/>
+    <col min="8714" max="8714" width="15" bestFit="1" customWidth="1"/>
+    <col min="8715" max="8715" width="12" customWidth="1"/>
+    <col min="8716" max="8716" width="12.83203125" customWidth="1"/>
+    <col min="8717" max="8717" width="7" customWidth="1"/>
+    <col min="8718" max="8718" width="11.5" customWidth="1"/>
+    <col min="8961" max="8961" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="8962" max="8962" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="8963" max="8963" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="8964" max="8964" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="8965" max="8966" width="15.6640625" customWidth="1"/>
+    <col min="8967" max="8967" width="13.83203125" customWidth="1"/>
+    <col min="8968" max="8968" width="15.83203125" customWidth="1"/>
+    <col min="8969" max="8969" width="14" customWidth="1"/>
+    <col min="8970" max="8970" width="15" bestFit="1" customWidth="1"/>
+    <col min="8971" max="8971" width="12" customWidth="1"/>
+    <col min="8972" max="8972" width="12.83203125" customWidth="1"/>
+    <col min="8973" max="8973" width="7" customWidth="1"/>
+    <col min="8974" max="8974" width="11.5" customWidth="1"/>
+    <col min="9217" max="9217" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="9218" max="9218" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="9219" max="9219" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="9220" max="9220" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="9221" max="9222" width="15.6640625" customWidth="1"/>
+    <col min="9223" max="9223" width="13.83203125" customWidth="1"/>
+    <col min="9224" max="9224" width="15.83203125" customWidth="1"/>
+    <col min="9225" max="9225" width="14" customWidth="1"/>
+    <col min="9226" max="9226" width="15" bestFit="1" customWidth="1"/>
+    <col min="9227" max="9227" width="12" customWidth="1"/>
+    <col min="9228" max="9228" width="12.83203125" customWidth="1"/>
+    <col min="9229" max="9229" width="7" customWidth="1"/>
+    <col min="9230" max="9230" width="11.5" customWidth="1"/>
+    <col min="9473" max="9473" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="9474" max="9474" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="9475" max="9475" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="9476" max="9476" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="9477" max="9478" width="15.6640625" customWidth="1"/>
+    <col min="9479" max="9479" width="13.83203125" customWidth="1"/>
+    <col min="9480" max="9480" width="15.83203125" customWidth="1"/>
+    <col min="9481" max="9481" width="14" customWidth="1"/>
+    <col min="9482" max="9482" width="15" bestFit="1" customWidth="1"/>
+    <col min="9483" max="9483" width="12" customWidth="1"/>
+    <col min="9484" max="9484" width="12.83203125" customWidth="1"/>
+    <col min="9485" max="9485" width="7" customWidth="1"/>
+    <col min="9486" max="9486" width="11.5" customWidth="1"/>
+    <col min="9729" max="9729" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="9730" max="9730" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="9731" max="9731" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="9732" max="9732" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="9733" max="9734" width="15.6640625" customWidth="1"/>
+    <col min="9735" max="9735" width="13.83203125" customWidth="1"/>
+    <col min="9736" max="9736" width="15.83203125" customWidth="1"/>
+    <col min="9737" max="9737" width="14" customWidth="1"/>
+    <col min="9738" max="9738" width="15" bestFit="1" customWidth="1"/>
+    <col min="9739" max="9739" width="12" customWidth="1"/>
+    <col min="9740" max="9740" width="12.83203125" customWidth="1"/>
+    <col min="9741" max="9741" width="7" customWidth="1"/>
+    <col min="9742" max="9742" width="11.5" customWidth="1"/>
+    <col min="9985" max="9985" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="9986" max="9986" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="9987" max="9987" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="9988" max="9988" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="9989" max="9990" width="15.6640625" customWidth="1"/>
+    <col min="9991" max="9991" width="13.83203125" customWidth="1"/>
+    <col min="9992" max="9992" width="15.83203125" customWidth="1"/>
+    <col min="9993" max="9993" width="14" customWidth="1"/>
+    <col min="9994" max="9994" width="15" bestFit="1" customWidth="1"/>
+    <col min="9995" max="9995" width="12" customWidth="1"/>
+    <col min="9996" max="9996" width="12.83203125" customWidth="1"/>
+    <col min="9997" max="9997" width="7" customWidth="1"/>
+    <col min="9998" max="9998" width="11.5" customWidth="1"/>
+    <col min="10241" max="10241" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="10242" max="10242" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="10243" max="10243" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="10244" max="10244" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="10245" max="10246" width="15.6640625" customWidth="1"/>
+    <col min="10247" max="10247" width="13.83203125" customWidth="1"/>
+    <col min="10248" max="10248" width="15.83203125" customWidth="1"/>
+    <col min="10249" max="10249" width="14" customWidth="1"/>
+    <col min="10250" max="10250" width="15" bestFit="1" customWidth="1"/>
+    <col min="10251" max="10251" width="12" customWidth="1"/>
+    <col min="10252" max="10252" width="12.83203125" customWidth="1"/>
+    <col min="10253" max="10253" width="7" customWidth="1"/>
+    <col min="10254" max="10254" width="11.5" customWidth="1"/>
+    <col min="10497" max="10497" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="10498" max="10498" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="10499" max="10499" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="10500" max="10500" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="10501" max="10502" width="15.6640625" customWidth="1"/>
+    <col min="10503" max="10503" width="13.83203125" customWidth="1"/>
+    <col min="10504" max="10504" width="15.83203125" customWidth="1"/>
+    <col min="10505" max="10505" width="14" customWidth="1"/>
+    <col min="10506" max="10506" width="15" bestFit="1" customWidth="1"/>
+    <col min="10507" max="10507" width="12" customWidth="1"/>
+    <col min="10508" max="10508" width="12.83203125" customWidth="1"/>
+    <col min="10509" max="10509" width="7" customWidth="1"/>
+    <col min="10510" max="10510" width="11.5" customWidth="1"/>
+    <col min="10753" max="10753" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="10754" max="10754" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="10755" max="10755" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="10756" max="10756" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="10757" max="10758" width="15.6640625" customWidth="1"/>
+    <col min="10759" max="10759" width="13.83203125" customWidth="1"/>
+    <col min="10760" max="10760" width="15.83203125" customWidth="1"/>
+    <col min="10761" max="10761" width="14" customWidth="1"/>
+    <col min="10762" max="10762" width="15" bestFit="1" customWidth="1"/>
+    <col min="10763" max="10763" width="12" customWidth="1"/>
+    <col min="10764" max="10764" width="12.83203125" customWidth="1"/>
+    <col min="10765" max="10765" width="7" customWidth="1"/>
+    <col min="10766" max="10766" width="11.5" customWidth="1"/>
+    <col min="11009" max="11009" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="11010" max="11010" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="11011" max="11011" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="11012" max="11012" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="11013" max="11014" width="15.6640625" customWidth="1"/>
+    <col min="11015" max="11015" width="13.83203125" customWidth="1"/>
+    <col min="11016" max="11016" width="15.83203125" customWidth="1"/>
+    <col min="11017" max="11017" width="14" customWidth="1"/>
+    <col min="11018" max="11018" width="15" bestFit="1" customWidth="1"/>
+    <col min="11019" max="11019" width="12" customWidth="1"/>
+    <col min="11020" max="11020" width="12.83203125" customWidth="1"/>
+    <col min="11021" max="11021" width="7" customWidth="1"/>
+    <col min="11022" max="11022" width="11.5" customWidth="1"/>
+    <col min="11265" max="11265" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="11266" max="11266" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="11267" max="11267" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="11268" max="11268" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="11269" max="11270" width="15.6640625" customWidth="1"/>
+    <col min="11271" max="11271" width="13.83203125" customWidth="1"/>
+    <col min="11272" max="11272" width="15.83203125" customWidth="1"/>
+    <col min="11273" max="11273" width="14" customWidth="1"/>
+    <col min="11274" max="11274" width="15" bestFit="1" customWidth="1"/>
+    <col min="11275" max="11275" width="12" customWidth="1"/>
+    <col min="11276" max="11276" width="12.83203125" customWidth="1"/>
+    <col min="11277" max="11277" width="7" customWidth="1"/>
+    <col min="11278" max="11278" width="11.5" customWidth="1"/>
+    <col min="11521" max="11521" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="11522" max="11522" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="11523" max="11523" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="11524" max="11524" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="11525" max="11526" width="15.6640625" customWidth="1"/>
+    <col min="11527" max="11527" width="13.83203125" customWidth="1"/>
+    <col min="11528" max="11528" width="15.83203125" customWidth="1"/>
+    <col min="11529" max="11529" width="14" customWidth="1"/>
+    <col min="11530" max="11530" width="15" bestFit="1" customWidth="1"/>
+    <col min="11531" max="11531" width="12" customWidth="1"/>
+    <col min="11532" max="11532" width="12.83203125" customWidth="1"/>
+    <col min="11533" max="11533" width="7" customWidth="1"/>
+    <col min="11534" max="11534" width="11.5" customWidth="1"/>
+    <col min="11777" max="11777" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="11778" max="11778" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="11779" max="11779" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="11780" max="11780" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="11781" max="11782" width="15.6640625" customWidth="1"/>
+    <col min="11783" max="11783" width="13.83203125" customWidth="1"/>
+    <col min="11784" max="11784" width="15.83203125" customWidth="1"/>
+    <col min="11785" max="11785" width="14" customWidth="1"/>
+    <col min="11786" max="11786" width="15" bestFit="1" customWidth="1"/>
+    <col min="11787" max="11787" width="12" customWidth="1"/>
+    <col min="11788" max="11788" width="12.83203125" customWidth="1"/>
+    <col min="11789" max="11789" width="7" customWidth="1"/>
+    <col min="11790" max="11790" width="11.5" customWidth="1"/>
+    <col min="12033" max="12033" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="12034" max="12034" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="12035" max="12035" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="12036" max="12036" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="12037" max="12038" width="15.6640625" customWidth="1"/>
+    <col min="12039" max="12039" width="13.83203125" customWidth="1"/>
+    <col min="12040" max="12040" width="15.83203125" customWidth="1"/>
+    <col min="12041" max="12041" width="14" customWidth="1"/>
+    <col min="12042" max="12042" width="15" bestFit="1" customWidth="1"/>
+    <col min="12043" max="12043" width="12" customWidth="1"/>
+    <col min="12044" max="12044" width="12.83203125" customWidth="1"/>
+    <col min="12045" max="12045" width="7" customWidth="1"/>
+    <col min="12046" max="12046" width="11.5" customWidth="1"/>
+    <col min="12289" max="12289" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="12290" max="12290" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="12291" max="12291" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="12292" max="12292" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="12293" max="12294" width="15.6640625" customWidth="1"/>
+    <col min="12295" max="12295" width="13.83203125" customWidth="1"/>
+    <col min="12296" max="12296" width="15.83203125" customWidth="1"/>
+    <col min="12297" max="12297" width="14" customWidth="1"/>
+    <col min="12298" max="12298" width="15" bestFit="1" customWidth="1"/>
+    <col min="12299" max="12299" width="12" customWidth="1"/>
+    <col min="12300" max="12300" width="12.83203125" customWidth="1"/>
+    <col min="12301" max="12301" width="7" customWidth="1"/>
+    <col min="12302" max="12302" width="11.5" customWidth="1"/>
+    <col min="12545" max="12545" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="12546" max="12546" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="12547" max="12547" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="12548" max="12548" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="12549" max="12550" width="15.6640625" customWidth="1"/>
+    <col min="12551" max="12551" width="13.83203125" customWidth="1"/>
+    <col min="12552" max="12552" width="15.83203125" customWidth="1"/>
+    <col min="12553" max="12553" width="14" customWidth="1"/>
+    <col min="12554" max="12554" width="15" bestFit="1" customWidth="1"/>
+    <col min="12555" max="12555" width="12" customWidth="1"/>
+    <col min="12556" max="12556" width="12.83203125" customWidth="1"/>
+    <col min="12557" max="12557" width="7" customWidth="1"/>
+    <col min="12558" max="12558" width="11.5" customWidth="1"/>
+    <col min="12801" max="12801" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="12802" max="12802" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="12803" max="12803" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="12804" max="12804" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="12805" max="12806" width="15.6640625" customWidth="1"/>
+    <col min="12807" max="12807" width="13.83203125" customWidth="1"/>
+    <col min="12808" max="12808" width="15.83203125" customWidth="1"/>
+    <col min="12809" max="12809" width="14" customWidth="1"/>
+    <col min="12810" max="12810" width="15" bestFit="1" customWidth="1"/>
+    <col min="12811" max="12811" width="12" customWidth="1"/>
+    <col min="12812" max="12812" width="12.83203125" customWidth="1"/>
+    <col min="12813" max="12813" width="7" customWidth="1"/>
+    <col min="12814" max="12814" width="11.5" customWidth="1"/>
+    <col min="13057" max="13057" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="13058" max="13058" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="13059" max="13059" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="13060" max="13060" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="13061" max="13062" width="15.6640625" customWidth="1"/>
+    <col min="13063" max="13063" width="13.83203125" customWidth="1"/>
+    <col min="13064" max="13064" width="15.83203125" customWidth="1"/>
+    <col min="13065" max="13065" width="14" customWidth="1"/>
+    <col min="13066" max="13066" width="15" bestFit="1" customWidth="1"/>
+    <col min="13067" max="13067" width="12" customWidth="1"/>
+    <col min="13068" max="13068" width="12.83203125" customWidth="1"/>
+    <col min="13069" max="13069" width="7" customWidth="1"/>
+    <col min="13070" max="13070" width="11.5" customWidth="1"/>
+    <col min="13313" max="13313" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="13314" max="13314" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="13315" max="13315" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="13316" max="13316" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="13317" max="13318" width="15.6640625" customWidth="1"/>
+    <col min="13319" max="13319" width="13.83203125" customWidth="1"/>
+    <col min="13320" max="13320" width="15.83203125" customWidth="1"/>
+    <col min="13321" max="13321" width="14" customWidth="1"/>
+    <col min="13322" max="13322" width="15" bestFit="1" customWidth="1"/>
+    <col min="13323" max="13323" width="12" customWidth="1"/>
+    <col min="13324" max="13324" width="12.83203125" customWidth="1"/>
+    <col min="13325" max="13325" width="7" customWidth="1"/>
+    <col min="13326" max="13326" width="11.5" customWidth="1"/>
+    <col min="13569" max="13569" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="13570" max="13570" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="13571" max="13571" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="13572" max="13572" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="13573" max="13574" width="15.6640625" customWidth="1"/>
+    <col min="13575" max="13575" width="13.83203125" customWidth="1"/>
+    <col min="13576" max="13576" width="15.83203125" customWidth="1"/>
+    <col min="13577" max="13577" width="14" customWidth="1"/>
+    <col min="13578" max="13578" width="15" bestFit="1" customWidth="1"/>
+    <col min="13579" max="13579" width="12" customWidth="1"/>
+    <col min="13580" max="13580" width="12.83203125" customWidth="1"/>
+    <col min="13581" max="13581" width="7" customWidth="1"/>
+    <col min="13582" max="13582" width="11.5" customWidth="1"/>
+    <col min="13825" max="13825" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="13826" max="13826" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="13827" max="13827" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="13828" max="13828" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="13829" max="13830" width="15.6640625" customWidth="1"/>
+    <col min="13831" max="13831" width="13.83203125" customWidth="1"/>
+    <col min="13832" max="13832" width="15.83203125" customWidth="1"/>
+    <col min="13833" max="13833" width="14" customWidth="1"/>
+    <col min="13834" max="13834" width="15" bestFit="1" customWidth="1"/>
+    <col min="13835" max="13835" width="12" customWidth="1"/>
+    <col min="13836" max="13836" width="12.83203125" customWidth="1"/>
+    <col min="13837" max="13837" width="7" customWidth="1"/>
+    <col min="13838" max="13838" width="11.5" customWidth="1"/>
+    <col min="14081" max="14081" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="14082" max="14082" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="14083" max="14083" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="14084" max="14084" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="14085" max="14086" width="15.6640625" customWidth="1"/>
+    <col min="14087" max="14087" width="13.83203125" customWidth="1"/>
+    <col min="14088" max="14088" width="15.83203125" customWidth="1"/>
+    <col min="14089" max="14089" width="14" customWidth="1"/>
+    <col min="14090" max="14090" width="15" bestFit="1" customWidth="1"/>
+    <col min="14091" max="14091" width="12" customWidth="1"/>
+    <col min="14092" max="14092" width="12.83203125" customWidth="1"/>
+    <col min="14093" max="14093" width="7" customWidth="1"/>
+    <col min="14094" max="14094" width="11.5" customWidth="1"/>
+    <col min="14337" max="14337" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="14338" max="14338" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="14339" max="14339" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="14340" max="14340" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="14341" max="14342" width="15.6640625" customWidth="1"/>
+    <col min="14343" max="14343" width="13.83203125" customWidth="1"/>
+    <col min="14344" max="14344" width="15.83203125" customWidth="1"/>
+    <col min="14345" max="14345" width="14" customWidth="1"/>
+    <col min="14346" max="14346" width="15" bestFit="1" customWidth="1"/>
+    <col min="14347" max="14347" width="12" customWidth="1"/>
+    <col min="14348" max="14348" width="12.83203125" customWidth="1"/>
+    <col min="14349" max="14349" width="7" customWidth="1"/>
+    <col min="14350" max="14350" width="11.5" customWidth="1"/>
+    <col min="14593" max="14593" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="14594" max="14594" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="14595" max="14595" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="14596" max="14596" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="14597" max="14598" width="15.6640625" customWidth="1"/>
+    <col min="14599" max="14599" width="13.83203125" customWidth="1"/>
+    <col min="14600" max="14600" width="15.83203125" customWidth="1"/>
+    <col min="14601" max="14601" width="14" customWidth="1"/>
+    <col min="14602" max="14602" width="15" bestFit="1" customWidth="1"/>
+    <col min="14603" max="14603" width="12" customWidth="1"/>
+    <col min="14604" max="14604" width="12.83203125" customWidth="1"/>
+    <col min="14605" max="14605" width="7" customWidth="1"/>
+    <col min="14606" max="14606" width="11.5" customWidth="1"/>
+    <col min="14849" max="14849" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="14850" max="14850" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="14851" max="14851" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="14852" max="14852" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="14853" max="14854" width="15.6640625" customWidth="1"/>
+    <col min="14855" max="14855" width="13.83203125" customWidth="1"/>
+    <col min="14856" max="14856" width="15.83203125" customWidth="1"/>
+    <col min="14857" max="14857" width="14" customWidth="1"/>
+    <col min="14858" max="14858" width="15" bestFit="1" customWidth="1"/>
+    <col min="14859" max="14859" width="12" customWidth="1"/>
+    <col min="14860" max="14860" width="12.83203125" customWidth="1"/>
+    <col min="14861" max="14861" width="7" customWidth="1"/>
+    <col min="14862" max="14862" width="11.5" customWidth="1"/>
+    <col min="15105" max="15105" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="15106" max="15106" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="15107" max="15107" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="15108" max="15108" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="15109" max="15110" width="15.6640625" customWidth="1"/>
+    <col min="15111" max="15111" width="13.83203125" customWidth="1"/>
+    <col min="15112" max="15112" width="15.83203125" customWidth="1"/>
+    <col min="15113" max="15113" width="14" customWidth="1"/>
+    <col min="15114" max="15114" width="15" bestFit="1" customWidth="1"/>
+    <col min="15115" max="15115" width="12" customWidth="1"/>
+    <col min="15116" max="15116" width="12.83203125" customWidth="1"/>
+    <col min="15117" max="15117" width="7" customWidth="1"/>
+    <col min="15118" max="15118" width="11.5" customWidth="1"/>
+    <col min="15361" max="15361" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="15362" max="15362" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="15363" max="15363" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="15364" max="15364" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="15365" max="15366" width="15.6640625" customWidth="1"/>
+    <col min="15367" max="15367" width="13.83203125" customWidth="1"/>
+    <col min="15368" max="15368" width="15.83203125" customWidth="1"/>
+    <col min="15369" max="15369" width="14" customWidth="1"/>
+    <col min="15370" max="15370" width="15" bestFit="1" customWidth="1"/>
+    <col min="15371" max="15371" width="12" customWidth="1"/>
+    <col min="15372" max="15372" width="12.83203125" customWidth="1"/>
+    <col min="15373" max="15373" width="7" customWidth="1"/>
+    <col min="15374" max="15374" width="11.5" customWidth="1"/>
+    <col min="15617" max="15617" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="15618" max="15618" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="15619" max="15619" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="15620" max="15620" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="15621" max="15622" width="15.6640625" customWidth="1"/>
+    <col min="15623" max="15623" width="13.83203125" customWidth="1"/>
+    <col min="15624" max="15624" width="15.83203125" customWidth="1"/>
+    <col min="15625" max="15625" width="14" customWidth="1"/>
+    <col min="15626" max="15626" width="15" bestFit="1" customWidth="1"/>
+    <col min="15627" max="15627" width="12" customWidth="1"/>
+    <col min="15628" max="15628" width="12.83203125" customWidth="1"/>
+    <col min="15629" max="15629" width="7" customWidth="1"/>
+    <col min="15630" max="15630" width="11.5" customWidth="1"/>
+    <col min="15873" max="15873" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="15874" max="15874" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="15875" max="15875" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="15876" max="15876" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="15877" max="15878" width="15.6640625" customWidth="1"/>
+    <col min="15879" max="15879" width="13.83203125" customWidth="1"/>
+    <col min="15880" max="15880" width="15.83203125" customWidth="1"/>
+    <col min="15881" max="15881" width="14" customWidth="1"/>
+    <col min="15882" max="15882" width="15" bestFit="1" customWidth="1"/>
+    <col min="15883" max="15883" width="12" customWidth="1"/>
+    <col min="15884" max="15884" width="12.83203125" customWidth="1"/>
+    <col min="15885" max="15885" width="7" customWidth="1"/>
+    <col min="15886" max="15886" width="11.5" customWidth="1"/>
+    <col min="16129" max="16129" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="16130" max="16130" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="16131" max="16131" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="16132" max="16132" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="16133" max="16134" width="15.6640625" customWidth="1"/>
+    <col min="16135" max="16135" width="13.83203125" customWidth="1"/>
+    <col min="16136" max="16136" width="15.83203125" customWidth="1"/>
+    <col min="16137" max="16137" width="14" customWidth="1"/>
+    <col min="16138" max="16138" width="15" bestFit="1" customWidth="1"/>
+    <col min="16139" max="16139" width="12" customWidth="1"/>
+    <col min="16140" max="16140" width="12.83203125" customWidth="1"/>
+    <col min="16141" max="16141" width="7" customWidth="1"/>
+    <col min="16142" max="16142" width="11.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="26" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" t="s">
+        <v>55</v>
+      </c>
+      <c r="F16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" t="s">
+        <v>55</v>
+      </c>
+      <c r="F17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" t="s">
+        <v>72</v>
+      </c>
+      <c r="F19" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>74</v>
+      </c>
+      <c r="B20" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" t="s">
+        <v>72</v>
+      </c>
+      <c r="F20" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>76</v>
+      </c>
+      <c r="B21" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E21" t="s">
+        <v>72</v>
+      </c>
+      <c r="F21" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>79</v>
+      </c>
+      <c r="B22" t="s">
+        <v>80</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E22" t="s">
+        <v>72</v>
+      </c>
+      <c r="F22" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>82</v>
+      </c>
+      <c r="B23" t="s">
+        <v>83</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E23" t="s">
+        <v>85</v>
+      </c>
+      <c r="F23" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>87</v>
+      </c>
+      <c r="B24" t="s">
+        <v>88</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E24" t="s">
+        <v>85</v>
+      </c>
+      <c r="F24" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>90</v>
+      </c>
+      <c r="B25" t="s">
+        <v>91</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E25" t="s">
+        <v>85</v>
+      </c>
+      <c r="F25" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>93</v>
+      </c>
+      <c r="B26" t="s">
+        <v>94</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E26" t="s">
+        <v>85</v>
+      </c>
+      <c r="F26" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>96</v>
+      </c>
+      <c r="B27" t="s">
+        <v>97</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E27" t="s">
+        <v>85</v>
+      </c>
+      <c r="F27" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>85</v>
+      </c>
+      <c r="B28" t="s">
+        <v>86</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E28" t="s">
+        <v>66</v>
+      </c>
+      <c r="F28" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>100</v>
+      </c>
+      <c r="B29" t="s">
+        <v>101</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E29" t="s">
+        <v>66</v>
+      </c>
+      <c r="F29" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>103</v>
+      </c>
+      <c r="B30" t="s">
+        <v>104</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E30" t="s">
+        <v>66</v>
+      </c>
+      <c r="F30" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>106</v>
+      </c>
+      <c r="B31" t="s">
+        <v>107</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E31" t="s">
+        <v>66</v>
+      </c>
+      <c r="F31" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>55</v>
+      </c>
+      <c r="B32" t="s">
+        <v>56</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E32" t="s">
+        <v>66</v>
+      </c>
+      <c r="F32" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
+        <v>72</v>
+      </c>
+      <c r="B33" t="s">
+        <v>73</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E33" t="s">
+        <v>66</v>
+      </c>
+      <c r="F33" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
+        <v>110</v>
+      </c>
+      <c r="B34" t="s">
+        <v>111</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E34" t="s">
+        <v>100</v>
+      </c>
+      <c r="F34" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
+        <v>113</v>
+      </c>
+      <c r="B35" t="s">
+        <v>114</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E35" t="s">
+        <v>100</v>
+      </c>
+      <c r="F35" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
+        <v>116</v>
+      </c>
+      <c r="B36" t="s">
+        <v>117</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E36" t="s">
+        <v>100</v>
+      </c>
+      <c r="F36" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
+        <v>119</v>
+      </c>
+      <c r="B37" t="s">
+        <v>120</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E37" t="s">
+        <v>100</v>
+      </c>
+      <c r="F37" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
+        <v>122</v>
+      </c>
+      <c r="B38" t="s">
+        <v>123</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E38" t="s">
+        <v>100</v>
+      </c>
+      <c r="F38" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A39" t="s">
+        <v>79</v>
+      </c>
+      <c r="B39" t="s">
+        <v>125</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E39" t="s">
+        <v>128</v>
+      </c>
+      <c r="F39" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A40" t="s">
+        <v>130</v>
+      </c>
+      <c r="B40" t="s">
+        <v>131</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E40" t="s">
+        <v>128</v>
+      </c>
+      <c r="F40" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A41" t="s">
+        <v>133</v>
+      </c>
+      <c r="B41" t="s">
+        <v>134</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E41" t="s">
+        <v>128</v>
+      </c>
+      <c r="F41" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A42" t="s">
+        <v>135</v>
+      </c>
+      <c r="B42" t="s">
+        <v>136</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E42" t="s">
+        <v>128</v>
+      </c>
+      <c r="F42" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A43" t="s">
+        <v>138</v>
+      </c>
+      <c r="B43" t="s">
+        <v>139</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E43" t="s">
+        <v>128</v>
+      </c>
+      <c r="F43" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A44" t="s">
+        <v>128</v>
+      </c>
+      <c r="B44" t="s">
+        <v>129</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E44" t="s">
+        <v>66</v>
+      </c>
+      <c r="F44" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A45" t="s">
+        <v>141</v>
+      </c>
+      <c r="B45" t="s">
+        <v>142</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E45" t="s">
+        <v>130</v>
+      </c>
+      <c r="F45" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A46" t="s">
+        <v>34</v>
+      </c>
+      <c r="B46" t="s">
+        <v>35</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E46" t="s">
+        <v>11</v>
+      </c>
+      <c r="F46" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A47" t="s">
+        <v>39</v>
+      </c>
+      <c r="B47" t="s">
+        <v>40</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E47" t="s">
+        <v>34</v>
+      </c>
+      <c r="F47" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A48" t="s">
+        <v>146</v>
+      </c>
+      <c r="B48" t="s">
+        <v>147</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E48" t="s">
+        <v>34</v>
+      </c>
+      <c r="F48" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A49" t="s">
+        <v>148</v>
+      </c>
+      <c r="B49" t="s">
+        <v>149</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E49" t="s">
+        <v>39</v>
+      </c>
+      <c r="F49" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A50" t="s">
+        <v>151</v>
+      </c>
+      <c r="B50" t="s">
+        <v>152</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E50" t="s">
+        <v>39</v>
+      </c>
+      <c r="F50" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A51" t="s">
+        <v>154</v>
+      </c>
+      <c r="B51" t="s">
+        <v>155</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E51" t="s">
+        <v>39</v>
+      </c>
+      <c r="F51" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A52" t="s">
+        <v>157</v>
+      </c>
+      <c r="B52" t="s">
+        <v>158</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E52" t="s">
+        <v>39</v>
+      </c>
+      <c r="F52" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A53" t="s">
+        <v>162</v>
+      </c>
+      <c r="B53" t="s">
+        <v>163</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E53" t="s">
+        <v>7</v>
+      </c>
+      <c r="F53" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:N52" xr:uid="{8C802D00-4655-BD47-95F7-68621D6F68FB}"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7302A043-AACA-3B48-8FD1-3E82C661F656}">
   <dimension ref="A1:N52"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2866,1257 +4600,1565 @@
     <col min="7" max="7" width="13.83203125" customWidth="1"/>
     <col min="8" max="8" width="15.83203125" customWidth="1"/>
     <col min="9" max="9" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12" customWidth="1"/>
     <col min="12" max="12" width="12.83203125" customWidth="1"/>
     <col min="13" max="13" width="7" customWidth="1"/>
     <col min="14" max="14" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="26" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" ht="39" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>61</v>
+        <v>13</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>174</v>
       </c>
       <c r="E2" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="F2" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="I2" t="s">
-        <v>168</v>
+        <v>161</v>
+      </c>
+      <c r="M2">
+        <v>100</v>
+      </c>
+      <c r="N2" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C3" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E3" t="s">
         <v>72</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E3" t="s">
-        <v>79</v>
-      </c>
       <c r="F3" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="I3" t="s">
-        <v>168</v>
+        <v>161</v>
+      </c>
+      <c r="M3">
+        <v>100</v>
+      </c>
+      <c r="N3" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="B4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>151</v>
+        <v>147</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>144</v>
       </c>
       <c r="E4" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F4" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="I4" t="s">
-        <v>168</v>
+        <v>161</v>
+      </c>
+      <c r="M4">
+        <v>100</v>
+      </c>
+      <c r="N4" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="B5" t="s">
-        <v>156</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>144</v>
       </c>
       <c r="E5" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="F5" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="I5" t="s">
-        <v>168</v>
+        <v>161</v>
+      </c>
+      <c r="M5">
+        <v>100</v>
+      </c>
+      <c r="N5" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="B6" t="s">
-        <v>104</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>61</v>
+        <v>97</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>174</v>
       </c>
       <c r="E6" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="F6" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="I6" t="s">
-        <v>168</v>
+        <v>161</v>
+      </c>
+      <c r="M6">
+        <v>100</v>
+      </c>
+      <c r="N6" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>61</v>
+        <v>56</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>174</v>
       </c>
       <c r="E7" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="F7" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="I7" t="s">
-        <v>168</v>
+        <v>161</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>100</v>
+      </c>
+      <c r="N7" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="E8" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="I8" t="s">
-        <v>168</v>
+        <v>161</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>100</v>
+      </c>
+      <c r="N8" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B9" t="s">
-        <v>130</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>61</v>
+        <v>123</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>174</v>
       </c>
       <c r="E9" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="F9" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="I9" t="s">
-        <v>168</v>
+        <v>161</v>
+      </c>
+      <c r="M9">
+        <v>100</v>
+      </c>
+      <c r="N9" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>50</v>
+        <v>12</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="E10" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="I10" t="s">
-        <v>168</v>
+        <v>161</v>
+      </c>
+      <c r="M10">
+        <v>100</v>
+      </c>
+      <c r="N10" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B11" t="s">
-        <v>159</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>144</v>
       </c>
       <c r="E11" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="F11" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="I11" t="s">
-        <v>168</v>
+        <v>161</v>
+      </c>
+      <c r="M11">
+        <v>100</v>
+      </c>
+      <c r="N11" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B12" t="s">
-        <v>56</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>58</v>
+        <v>49</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="E12" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="I12" t="s">
-        <v>168</v>
+        <v>161</v>
+      </c>
+      <c r="M12">
+        <v>100</v>
+      </c>
+      <c r="N12" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="B13" t="s">
-        <v>146</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>134</v>
+        <v>139</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>127</v>
       </c>
       <c r="E13" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="F13" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="I13" t="s">
-        <v>168</v>
+        <v>161</v>
+      </c>
+      <c r="M13">
+        <v>100</v>
+      </c>
+      <c r="N13" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B14" t="s">
-        <v>80</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>61</v>
+        <v>73</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>174</v>
       </c>
       <c r="E14" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="F14" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="I14" t="s">
-        <v>168</v>
+        <v>161</v>
+      </c>
+      <c r="M14">
+        <v>100</v>
+      </c>
+      <c r="N14" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="B15" t="s">
-        <v>93</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>61</v>
+        <v>86</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>174</v>
       </c>
       <c r="E15" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="F15" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="I15" t="s">
-        <v>168</v>
+        <v>161</v>
+      </c>
+      <c r="M15">
+        <v>100</v>
+      </c>
+      <c r="N15" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B16" t="s">
-        <v>71</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>61</v>
+        <v>64</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>174</v>
       </c>
       <c r="E16" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="F16" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="I16" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
+        <v>161</v>
+      </c>
+      <c r="M16">
+        <v>100</v>
+      </c>
+      <c r="N16" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="B17" t="s">
-        <v>136</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>134</v>
+        <v>129</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>127</v>
       </c>
       <c r="E17" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="F17" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="I17" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
+        <v>161</v>
+      </c>
+      <c r="M17">
+        <v>100</v>
+      </c>
+      <c r="N17" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>17</v>
+        <v>8</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="I18" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="K18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="M18">
+        <v>100</v>
+      </c>
+      <c r="N18" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" t="s">
+        <v>40</v>
+      </c>
+      <c r="G19" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E19" t="s">
-        <v>46</v>
-      </c>
-      <c r="F19" t="s">
-        <v>47</v>
-      </c>
-      <c r="G19" t="s">
-        <v>55</v>
-      </c>
       <c r="H19" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="I19" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="K19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="M19">
+        <v>100</v>
+      </c>
+      <c r="N19" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" t="s">
+        <v>18</v>
+      </c>
+      <c r="I20" t="s">
+        <v>160</v>
+      </c>
+      <c r="J20" s="3">
+        <v>43414</v>
+      </c>
+      <c r="M20">
+        <v>120</v>
+      </c>
+      <c r="N20" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>119</v>
+      </c>
+      <c r="B21" t="s">
+        <v>120</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E21" t="s">
+        <v>100</v>
+      </c>
+      <c r="F21" t="s">
+        <v>101</v>
+      </c>
+      <c r="I21" t="s">
+        <v>160</v>
+      </c>
+      <c r="M21">
+        <v>120</v>
+      </c>
+      <c r="N21" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>116</v>
+      </c>
+      <c r="B22" t="s">
+        <v>117</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E22" t="s">
+        <v>100</v>
+      </c>
+      <c r="F22" t="s">
+        <v>101</v>
+      </c>
+      <c r="I22" t="s">
+        <v>160</v>
+      </c>
+      <c r="M22">
+        <v>120</v>
+      </c>
+      <c r="N22" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E23" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" t="s">
+        <v>12</v>
+      </c>
+      <c r="I23" t="s">
+        <v>160</v>
+      </c>
+      <c r="M23">
+        <v>120</v>
+      </c>
+      <c r="N23" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" t="s">
+        <v>34</v>
+      </c>
+      <c r="F24" t="s">
+        <v>35</v>
+      </c>
+      <c r="I24" t="s">
+        <v>160</v>
+      </c>
+      <c r="M24">
+        <v>120</v>
+      </c>
+      <c r="N24" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>76</v>
+      </c>
+      <c r="B25" t="s">
+        <v>77</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E25" t="s">
+        <v>72</v>
+      </c>
+      <c r="F25" t="s">
+        <v>73</v>
+      </c>
+      <c r="I25" t="s">
+        <v>160</v>
+      </c>
+      <c r="M25">
+        <v>120</v>
+      </c>
+      <c r="N25" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E26" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" t="s">
+        <v>12</v>
+      </c>
+      <c r="I26" t="s">
+        <v>160</v>
+      </c>
+      <c r="M26">
+        <v>120</v>
+      </c>
+      <c r="N26" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E27" t="s">
+        <v>17</v>
+      </c>
+      <c r="F27" t="s">
+        <v>18</v>
+      </c>
+      <c r="I27" t="s">
+        <v>160</v>
+      </c>
+      <c r="M27">
+        <v>120</v>
+      </c>
+      <c r="N27" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28" t="s">
         <v>20</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C28" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20" t="s">
-        <v>24</v>
-      </c>
-      <c r="F20" t="s">
+      <c r="D28" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28" t="s">
+        <v>17</v>
+      </c>
+      <c r="F28" t="s">
+        <v>18</v>
+      </c>
+      <c r="I28" t="s">
+        <v>160</v>
+      </c>
+      <c r="M28">
+        <v>120</v>
+      </c>
+      <c r="N28" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>135</v>
+      </c>
+      <c r="B29" t="s">
+        <v>136</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E29" t="s">
+        <v>128</v>
+      </c>
+      <c r="F29" t="s">
+        <v>129</v>
+      </c>
+      <c r="I29" t="s">
+        <v>160</v>
+      </c>
+      <c r="M29">
+        <v>120</v>
+      </c>
+      <c r="N29" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
         <v>25</v>
       </c>
-      <c r="I20" t="s">
-        <v>167</v>
-      </c>
-      <c r="J20" s="4">
-        <v>43414</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A21" t="s">
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E30" t="s">
+        <v>17</v>
+      </c>
+      <c r="F30" t="s">
+        <v>18</v>
+      </c>
+      <c r="I30" t="s">
+        <v>160</v>
+      </c>
+      <c r="M30">
+        <v>120</v>
+      </c>
+      <c r="N30" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>69</v>
+      </c>
+      <c r="B31" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E31" t="s">
+        <v>72</v>
+      </c>
+      <c r="F31" t="s">
+        <v>73</v>
+      </c>
+      <c r="I31" t="s">
+        <v>160</v>
+      </c>
+      <c r="M31">
+        <v>120</v>
+      </c>
+      <c r="N31" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>130</v>
+      </c>
+      <c r="B32" t="s">
+        <v>131</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E32" t="s">
+        <v>128</v>
+      </c>
+      <c r="F32" t="s">
+        <v>129</v>
+      </c>
+      <c r="I32" t="s">
+        <v>160</v>
+      </c>
+      <c r="M32">
+        <v>120</v>
+      </c>
+      <c r="N32" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
+        <v>103</v>
+      </c>
+      <c r="B33" t="s">
+        <v>104</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E33" t="s">
+        <v>66</v>
+      </c>
+      <c r="F33" t="s">
+        <v>67</v>
+      </c>
+      <c r="I33" t="s">
+        <v>160</v>
+      </c>
+      <c r="M33">
+        <v>120</v>
+      </c>
+      <c r="N33" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E34" t="s">
+        <v>39</v>
+      </c>
+      <c r="F34" t="s">
+        <v>40</v>
+      </c>
+      <c r="I34" t="s">
+        <v>160</v>
+      </c>
+      <c r="M34">
+        <v>120</v>
+      </c>
+      <c r="N34" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
+        <v>28</v>
+      </c>
+      <c r="B35" t="s">
+        <v>29</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E35" t="s">
+        <v>17</v>
+      </c>
+      <c r="F35" t="s">
+        <v>18</v>
+      </c>
+      <c r="I35" t="s">
+        <v>160</v>
+      </c>
+      <c r="M35">
+        <v>120</v>
+      </c>
+      <c r="N35" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
+        <v>93</v>
+      </c>
+      <c r="B36" t="s">
+        <v>94</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E36" t="s">
+        <v>85</v>
+      </c>
+      <c r="F36" t="s">
+        <v>86</v>
+      </c>
+      <c r="I36" t="s">
+        <v>160</v>
+      </c>
+      <c r="M36">
+        <v>120</v>
+      </c>
+      <c r="N36" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
+        <v>90</v>
+      </c>
+      <c r="B37" t="s">
+        <v>91</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E37" t="s">
+        <v>85</v>
+      </c>
+      <c r="F37" t="s">
+        <v>86</v>
+      </c>
+      <c r="I37" t="s">
+        <v>160</v>
+      </c>
+      <c r="M37">
+        <v>120</v>
+      </c>
+      <c r="N37" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
+        <v>154</v>
+      </c>
+      <c r="B38" t="s">
+        <v>155</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E38" t="s">
+        <v>39</v>
+      </c>
+      <c r="F38" t="s">
+        <v>40</v>
+      </c>
+      <c r="I38" t="s">
+        <v>160</v>
+      </c>
+      <c r="M38">
+        <v>120</v>
+      </c>
+      <c r="N38" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A39" t="s">
+        <v>110</v>
+      </c>
+      <c r="B39" t="s">
+        <v>111</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E39" t="s">
+        <v>100</v>
+      </c>
+      <c r="F39" t="s">
+        <v>101</v>
+      </c>
+      <c r="I39" t="s">
+        <v>160</v>
+      </c>
+      <c r="M39">
+        <v>120</v>
+      </c>
+      <c r="N39" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A40" t="s">
+        <v>113</v>
+      </c>
+      <c r="B40" t="s">
+        <v>114</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E40" t="s">
+        <v>100</v>
+      </c>
+      <c r="F40" t="s">
+        <v>101</v>
+      </c>
+      <c r="I40" t="s">
+        <v>160</v>
+      </c>
+      <c r="M40">
+        <v>120</v>
+      </c>
+      <c r="N40" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A41" t="s">
+        <v>141</v>
+      </c>
+      <c r="B41" t="s">
+        <v>142</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E41" t="s">
+        <v>130</v>
+      </c>
+      <c r="F41" t="s">
+        <v>131</v>
+      </c>
+      <c r="I41" t="s">
+        <v>160</v>
+      </c>
+      <c r="M41">
+        <v>120</v>
+      </c>
+      <c r="N41" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A42" t="s">
+        <v>79</v>
+      </c>
+      <c r="B42" t="s">
+        <v>80</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E42" t="s">
+        <v>72</v>
+      </c>
+      <c r="F42" t="s">
+        <v>73</v>
+      </c>
+      <c r="I42" t="s">
+        <v>160</v>
+      </c>
+      <c r="M42">
+        <v>120</v>
+      </c>
+      <c r="N42" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A43" t="s">
+        <v>79</v>
+      </c>
+      <c r="B43" t="s">
+        <v>125</v>
+      </c>
+      <c r="C43" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B21" t="s">
+      <c r="D43" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="E43" t="s">
         <v>128</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="F43" t="s">
+        <v>129</v>
+      </c>
+      <c r="I43" t="s">
+        <v>160</v>
+      </c>
+      <c r="M43">
+        <v>120</v>
+      </c>
+      <c r="N43" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A44" t="s">
+        <v>157</v>
+      </c>
+      <c r="B44" t="s">
+        <v>158</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E44" t="s">
+        <v>39</v>
+      </c>
+      <c r="F44" t="s">
+        <v>40</v>
+      </c>
+      <c r="I44" t="s">
+        <v>160</v>
+      </c>
+      <c r="M44">
+        <v>120</v>
+      </c>
+      <c r="N44" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A45" t="s">
+        <v>60</v>
+      </c>
+      <c r="B45" t="s">
         <v>61</v>
       </c>
-      <c r="E21" t="s">
-        <v>107</v>
-      </c>
-      <c r="F21" t="s">
-        <v>108</v>
-      </c>
-      <c r="I21" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A22" t="s">
-        <v>123</v>
-      </c>
-      <c r="B22" t="s">
-        <v>124</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E22" t="s">
-        <v>107</v>
-      </c>
-      <c r="F22" t="s">
-        <v>108</v>
-      </c>
-      <c r="I22" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A23" t="s">
-        <v>73</v>
-      </c>
-      <c r="B23" t="s">
-        <v>74</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E23" t="s">
-        <v>18</v>
-      </c>
-      <c r="F23" t="s">
-        <v>19</v>
-      </c>
-      <c r="I23" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A24" t="s">
-        <v>38</v>
-      </c>
-      <c r="B24" t="s">
-        <v>39</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E24" t="s">
-        <v>41</v>
-      </c>
-      <c r="F24" t="s">
-        <v>42</v>
-      </c>
-      <c r="I24" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A25" t="s">
-        <v>83</v>
-      </c>
-      <c r="B25" t="s">
-        <v>84</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E25" t="s">
-        <v>79</v>
-      </c>
-      <c r="F25" t="s">
-        <v>80</v>
-      </c>
-      <c r="I25" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A26" t="s">
-        <v>41</v>
-      </c>
-      <c r="B26" t="s">
-        <v>42</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="E26" t="s">
-        <v>18</v>
-      </c>
-      <c r="F26" t="s">
-        <v>19</v>
-      </c>
-      <c r="I26" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A27" t="s">
-        <v>29</v>
-      </c>
-      <c r="B27" t="s">
-        <v>30</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E27" t="s">
-        <v>24</v>
-      </c>
-      <c r="F27" t="s">
-        <v>25</v>
-      </c>
-      <c r="I27" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A28" t="s">
-        <v>26</v>
-      </c>
-      <c r="B28" t="s">
-        <v>27</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E28" t="s">
-        <v>24</v>
-      </c>
-      <c r="F28" t="s">
-        <v>25</v>
-      </c>
-      <c r="I28" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A29" t="s">
-        <v>142</v>
-      </c>
-      <c r="B29" t="s">
-        <v>143</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="E29" t="s">
-        <v>135</v>
-      </c>
-      <c r="F29" t="s">
-        <v>136</v>
-      </c>
-      <c r="I29" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A30" t="s">
-        <v>32</v>
-      </c>
-      <c r="B30" t="s">
-        <v>33</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E30" t="s">
-        <v>24</v>
-      </c>
-      <c r="F30" t="s">
-        <v>25</v>
-      </c>
-      <c r="I30" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A31" t="s">
-        <v>76</v>
-      </c>
-      <c r="B31" t="s">
-        <v>77</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E31" t="s">
-        <v>79</v>
-      </c>
-      <c r="F31" t="s">
-        <v>80</v>
-      </c>
-      <c r="I31" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A32" t="s">
-        <v>137</v>
-      </c>
-      <c r="B32" t="s">
-        <v>138</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="E32" t="s">
-        <v>135</v>
-      </c>
-      <c r="F32" t="s">
-        <v>136</v>
-      </c>
-      <c r="I32" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A33" t="s">
-        <v>110</v>
-      </c>
-      <c r="B33" t="s">
-        <v>111</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E33" t="s">
-        <v>73</v>
-      </c>
-      <c r="F33" t="s">
-        <v>74</v>
-      </c>
-      <c r="I33" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A34" t="s">
-        <v>43</v>
-      </c>
-      <c r="B34" t="s">
-        <v>44</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="E34" t="s">
-        <v>46</v>
-      </c>
-      <c r="F34" t="s">
-        <v>47</v>
-      </c>
-      <c r="I34" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A35" t="s">
-        <v>35</v>
-      </c>
-      <c r="B35" t="s">
-        <v>36</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35" t="s">
-        <v>24</v>
-      </c>
-      <c r="F35" t="s">
-        <v>25</v>
-      </c>
-      <c r="I35" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A36" t="s">
-        <v>100</v>
-      </c>
-      <c r="B36" t="s">
-        <v>101</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E36" t="s">
-        <v>92</v>
-      </c>
-      <c r="F36" t="s">
-        <v>93</v>
-      </c>
-      <c r="I36" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A37" t="s">
-        <v>97</v>
-      </c>
-      <c r="B37" t="s">
-        <v>98</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E37" t="s">
-        <v>92</v>
-      </c>
-      <c r="F37" t="s">
-        <v>93</v>
-      </c>
-      <c r="I37" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A38" t="s">
-        <v>161</v>
-      </c>
-      <c r="B38" t="s">
-        <v>162</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="E38" t="s">
-        <v>46</v>
-      </c>
-      <c r="F38" t="s">
-        <v>47</v>
-      </c>
-      <c r="I38" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A39" t="s">
-        <v>117</v>
-      </c>
-      <c r="B39" t="s">
-        <v>118</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E39" t="s">
-        <v>107</v>
-      </c>
-      <c r="F39" t="s">
-        <v>108</v>
-      </c>
-      <c r="I39" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A40" t="s">
-        <v>120</v>
-      </c>
-      <c r="B40" t="s">
-        <v>121</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E40" t="s">
-        <v>107</v>
-      </c>
-      <c r="F40" t="s">
-        <v>108</v>
-      </c>
-      <c r="I40" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A41" t="s">
-        <v>148</v>
-      </c>
-      <c r="B41" t="s">
-        <v>149</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="E41" t="s">
-        <v>137</v>
-      </c>
-      <c r="F41" t="s">
-        <v>138</v>
-      </c>
-      <c r="I41" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A42" t="s">
-        <v>86</v>
-      </c>
-      <c r="B42" t="s">
-        <v>87</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E42" t="s">
-        <v>79</v>
-      </c>
-      <c r="F42" t="s">
-        <v>80</v>
-      </c>
-      <c r="I42" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A43" t="s">
-        <v>86</v>
-      </c>
-      <c r="B43" t="s">
-        <v>132</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="E43" t="s">
-        <v>135</v>
-      </c>
-      <c r="F43" t="s">
-        <v>136</v>
-      </c>
-      <c r="I43" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A44" t="s">
-        <v>164</v>
-      </c>
-      <c r="B44" t="s">
-        <v>165</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="E44" t="s">
-        <v>46</v>
-      </c>
-      <c r="F44" t="s">
-        <v>47</v>
-      </c>
-      <c r="I44" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A45" t="s">
-        <v>67</v>
-      </c>
-      <c r="B45" t="s">
-        <v>68</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>61</v>
+      <c r="C45" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>174</v>
       </c>
       <c r="E45" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="F45" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="I45" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="K45">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="M45">
+        <v>120</v>
+      </c>
+      <c r="N45" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B46" t="s">
-        <v>95</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>61</v>
+        <v>88</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>174</v>
       </c>
       <c r="E46" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="F46" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="I46" t="s">
-        <v>167</v>
-      </c>
-      <c r="J46" s="4">
+        <v>160</v>
+      </c>
+      <c r="J46" s="3">
         <v>43291</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="M46">
+        <v>120</v>
+      </c>
+      <c r="N46" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B47" t="s">
-        <v>65</v>
-      </c>
-      <c r="C47" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E47" t="s">
+        <v>55</v>
+      </c>
+      <c r="F47" t="s">
+        <v>56</v>
+      </c>
+      <c r="I47" t="s">
+        <v>160</v>
+      </c>
+      <c r="M47">
+        <v>120</v>
+      </c>
+      <c r="N47" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A48" t="s">
+        <v>106</v>
+      </c>
+      <c r="B48" t="s">
+        <v>107</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E48" t="s">
         <v>66</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E47" t="s">
-        <v>62</v>
-      </c>
-      <c r="F47" t="s">
-        <v>63</v>
-      </c>
-      <c r="I47" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A48" t="s">
-        <v>113</v>
-      </c>
-      <c r="B48" t="s">
-        <v>114</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E48" t="s">
-        <v>73</v>
-      </c>
       <c r="F48" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="I48" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.15">
+        <v>160</v>
+      </c>
+      <c r="M48">
+        <v>120</v>
+      </c>
+      <c r="N48" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="B49" t="s">
-        <v>141</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="D49" s="3" t="s">
         <v>134</v>
       </c>
+      <c r="C49" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>127</v>
+      </c>
       <c r="E49" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="F49" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="I49" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.15">
+        <v>160</v>
+      </c>
+      <c r="M49">
+        <v>120</v>
+      </c>
+      <c r="N49" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="B50" t="s">
-        <v>108</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>61</v>
+        <v>101</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>174</v>
       </c>
       <c r="E50" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="F50" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="I50" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.15">
+        <v>160</v>
+      </c>
+      <c r="M50">
+        <v>120</v>
+      </c>
+      <c r="N50" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B51" t="s">
-        <v>47</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>151</v>
+        <v>40</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>144</v>
       </c>
       <c r="E51" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F51" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="I51" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.15">
+        <v>160</v>
+      </c>
+      <c r="M51">
+        <v>120</v>
+      </c>
+      <c r="N51" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B52" t="s">
-        <v>90</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>61</v>
+        <v>83</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>174</v>
       </c>
       <c r="E52" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="F52" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="I52" t="s">
-        <v>167</v>
+        <v>160</v>
+      </c>
+      <c r="M52">
+        <v>120</v>
+      </c>
+      <c r="N52" t="s">
+        <v>165</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N52" xr:uid="{BB1F9E09-1801-A440-B5B7-16F1DED09EF6}">
-    <sortState ref="A2:N52">
-      <sortCondition ref="A1:A52"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:N52" xr:uid="{BB1F9E09-1801-A440-B5B7-16F1DED09EF6}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>

--- a/ntOrgchart-sample_input.xlsx
+++ b/ntOrgchart-sample_input.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nikitatolstoy/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nikitatolstoy/ntOrgchart/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A558F268-661C-F14A-A4D9-F25D7C07EC0D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60ABE640-DCBE-8E4E-A772-81656CCC2F51}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="15840" activeTab="2" xr2:uid="{37419241-022C-1E4F-AB89-39142F5DE753}"/>
   </bookViews>
